--- a/natmiOut/OldD7/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49016601128192</v>
+        <v>11.66506566666667</v>
       </c>
       <c r="H2">
-        <v>4.49016601128192</v>
+        <v>34.995197</v>
       </c>
       <c r="I2">
-        <v>0.0009612325418993733</v>
+        <v>0.002461364886242511</v>
       </c>
       <c r="J2">
-        <v>0.0009612325418993733</v>
+        <v>0.002461364886242511</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.25366665034781</v>
+        <v>1.488193</v>
       </c>
       <c r="N2">
-        <v>1.25366665034781</v>
+        <v>4.464579</v>
       </c>
       <c r="O2">
-        <v>0.08916031734685971</v>
+        <v>0.09810006315031751</v>
       </c>
       <c r="P2">
-        <v>0.08916031734685971</v>
+        <v>0.09810006315031751</v>
       </c>
       <c r="Q2">
-        <v>5.629171382869391</v>
+        <v>17.35986906967367</v>
       </c>
       <c r="R2">
-        <v>5.629171382869391</v>
+        <v>156.238821627063</v>
       </c>
       <c r="S2">
-        <v>8.570379847987674E-05</v>
+        <v>0.0002414600507763644</v>
       </c>
       <c r="T2">
-        <v>8.570379847987674E-05</v>
+        <v>0.0002414600507763644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.49016601128192</v>
+        <v>11.66506566666667</v>
       </c>
       <c r="H3">
-        <v>4.49016601128192</v>
+        <v>34.995197</v>
       </c>
       <c r="I3">
-        <v>0.0009612325418993733</v>
+        <v>0.002461364886242511</v>
       </c>
       <c r="J3">
-        <v>0.0009612325418993733</v>
+        <v>0.002461364886242511</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.529343693568229</v>
+        <v>9.650305666666668</v>
       </c>
       <c r="N3">
-        <v>9.529343693568229</v>
+        <v>28.950917</v>
       </c>
       <c r="O3">
-        <v>0.6777234662740056</v>
+        <v>0.6361376483560043</v>
       </c>
       <c r="P3">
-        <v>0.6777234662740056</v>
+        <v>0.6361376483560043</v>
       </c>
       <c r="Q3">
-        <v>42.78833516268377</v>
+        <v>112.5714493050722</v>
       </c>
       <c r="R3">
-        <v>42.78833516268377</v>
+        <v>1013.143043745649</v>
       </c>
       <c r="S3">
-        <v>0.0006514498501914165</v>
+        <v>0.001565766870480355</v>
       </c>
       <c r="T3">
-        <v>0.0006514498501914165</v>
+        <v>0.001565766870480355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.49016601128192</v>
+        <v>11.66506566666667</v>
       </c>
       <c r="H4">
-        <v>4.49016601128192</v>
+        <v>34.995197</v>
       </c>
       <c r="I4">
-        <v>0.0009612325418993733</v>
+        <v>0.002461364886242511</v>
       </c>
       <c r="J4">
-        <v>0.0009612325418993733</v>
+        <v>0.002461364886242511</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.27780379014183</v>
+        <v>0.009611333333333333</v>
       </c>
       <c r="N4">
-        <v>3.27780379014183</v>
+        <v>0.028834</v>
       </c>
       <c r="O4">
-        <v>0.2331162163791347</v>
+        <v>0.0006335686345512656</v>
       </c>
       <c r="P4">
-        <v>0.2331162163791347</v>
+        <v>0.0006335686345512656</v>
       </c>
       <c r="Q4">
-        <v>14.7178831701459</v>
+        <v>0.1121168344775556</v>
       </c>
       <c r="R4">
-        <v>14.7178831701459</v>
+        <v>1.009051510298</v>
       </c>
       <c r="S4">
-        <v>0.00022407889322808</v>
+        <v>1.559443590109099E-06</v>
       </c>
       <c r="T4">
-        <v>0.00022407889322808</v>
+        <v>1.559443590109099E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4623.35043572294</v>
+        <v>11.66506566666667</v>
       </c>
       <c r="H5">
-        <v>4623.35043572294</v>
+        <v>34.995197</v>
       </c>
       <c r="I5">
-        <v>0.9897440050669228</v>
+        <v>0.002461364886242511</v>
       </c>
       <c r="J5">
-        <v>0.9897440050669228</v>
+        <v>0.002461364886242511</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.25366665034781</v>
+        <v>4.022043333333333</v>
       </c>
       <c r="N5">
-        <v>1.25366665034781</v>
+        <v>12.06613</v>
       </c>
       <c r="O5">
-        <v>0.08916031734685971</v>
+        <v>0.2651287198591268</v>
       </c>
       <c r="P5">
-        <v>0.08916031734685971</v>
+        <v>0.2651287198591268</v>
       </c>
       <c r="Q5">
-        <v>5796.140254136866</v>
+        <v>46.91739959751223</v>
       </c>
       <c r="R5">
-        <v>5796.140254136866</v>
+        <v>422.25659637761</v>
       </c>
       <c r="S5">
-        <v>0.08824588958391877</v>
+        <v>0.0006525785213956823</v>
       </c>
       <c r="T5">
-        <v>0.08824588958391877</v>
+        <v>0.0006525785213956823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4623.35043572294</v>
+        <v>4683.852620333333</v>
       </c>
       <c r="H6">
-        <v>4623.35043572294</v>
+        <v>14051.557861</v>
       </c>
       <c r="I6">
-        <v>0.9897440050669228</v>
+        <v>0.9883073701819801</v>
       </c>
       <c r="J6">
-        <v>0.9897440050669228</v>
+        <v>0.9883073701819801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.529343693568229</v>
+        <v>1.488193</v>
       </c>
       <c r="N6">
-        <v>9.529343693568229</v>
+        <v>4.464579</v>
       </c>
       <c r="O6">
-        <v>0.6777234662740056</v>
+        <v>0.09810006315031751</v>
       </c>
       <c r="P6">
-        <v>0.6777234662740056</v>
+        <v>0.09810006315031751</v>
       </c>
       <c r="Q6">
-        <v>44057.49531781233</v>
+        <v>6970.476682611724</v>
       </c>
       <c r="R6">
-        <v>44057.49531781233</v>
+        <v>62734.29014350551</v>
       </c>
       <c r="S6">
-        <v>0.6707727378378719</v>
+        <v>0.09695301542677648</v>
       </c>
       <c r="T6">
-        <v>0.6707727378378719</v>
+        <v>0.09695301542677648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4623.35043572294</v>
+        <v>4683.852620333333</v>
       </c>
       <c r="H7">
-        <v>4623.35043572294</v>
+        <v>14051.557861</v>
       </c>
       <c r="I7">
-        <v>0.9897440050669228</v>
+        <v>0.9883073701819801</v>
       </c>
       <c r="J7">
-        <v>0.9897440050669228</v>
+        <v>0.9883073701819801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.27780379014183</v>
+        <v>9.650305666666668</v>
       </c>
       <c r="N7">
-        <v>3.27780379014183</v>
+        <v>28.950917</v>
       </c>
       <c r="O7">
-        <v>0.2331162163791347</v>
+        <v>0.6361376483560043</v>
       </c>
       <c r="P7">
-        <v>0.2331162163791347</v>
+        <v>0.6361376483560043</v>
       </c>
       <c r="Q7">
-        <v>15154.43558136654</v>
+        <v>45200.60948383428</v>
       </c>
       <c r="R7">
-        <v>15154.43558136654</v>
+        <v>406805.4853545086</v>
       </c>
       <c r="S7">
-        <v>0.2307253776451322</v>
+        <v>0.6286995263204718</v>
       </c>
       <c r="T7">
-        <v>0.2307253776451322</v>
+        <v>0.6286995263204718</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.02919855375861</v>
+        <v>4683.852620333333</v>
       </c>
       <c r="H8">
-        <v>3.02919855375861</v>
+        <v>14051.557861</v>
       </c>
       <c r="I8">
-        <v>0.0006484758511002136</v>
+        <v>0.9883073701819801</v>
       </c>
       <c r="J8">
-        <v>0.0006484758511002136</v>
+        <v>0.9883073701819801</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.25366665034781</v>
+        <v>0.009611333333333333</v>
       </c>
       <c r="N8">
-        <v>1.25366665034781</v>
+        <v>0.028834</v>
       </c>
       <c r="O8">
-        <v>0.08916031734685971</v>
+        <v>0.0006335686345512656</v>
       </c>
       <c r="P8">
-        <v>0.08916031734685971</v>
+        <v>0.0006335686345512656</v>
       </c>
       <c r="Q8">
-        <v>3.797605204128987</v>
+        <v>45.01806881823044</v>
       </c>
       <c r="R8">
-        <v>3.797605204128987</v>
+        <v>405.162619364074</v>
       </c>
       <c r="S8">
-        <v>5.781831267586999E-05</v>
+        <v>0.0006261605510431493</v>
       </c>
       <c r="T8">
-        <v>5.781831267586999E-05</v>
+        <v>0.0006261605510431493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.02919855375861</v>
+        <v>4683.852620333333</v>
       </c>
       <c r="H9">
-        <v>3.02919855375861</v>
+        <v>14051.557861</v>
       </c>
       <c r="I9">
-        <v>0.0006484758511002136</v>
+        <v>0.9883073701819801</v>
       </c>
       <c r="J9">
-        <v>0.0006484758511002136</v>
+        <v>0.9883073701819801</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.529343693568229</v>
+        <v>4.022043333333333</v>
       </c>
       <c r="N9">
-        <v>9.529343693568229</v>
+        <v>12.06613</v>
       </c>
       <c r="O9">
-        <v>0.6777234662740056</v>
+        <v>0.2651287198591268</v>
       </c>
       <c r="P9">
-        <v>0.6777234662740056</v>
+        <v>0.2651287198591268</v>
       </c>
       <c r="Q9">
-        <v>28.86627413482561</v>
+        <v>18838.65820592755</v>
       </c>
       <c r="R9">
-        <v>28.86627413482561</v>
+        <v>169547.9238533479</v>
       </c>
       <c r="S9">
-        <v>0.0004394873016026227</v>
+        <v>0.2620286678836886</v>
       </c>
       <c r="T9">
-        <v>0.0004394873016026227</v>
+        <v>0.2620286678836886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02919855375861</v>
+        <v>3.125034333333333</v>
       </c>
       <c r="H10">
-        <v>3.02919855375861</v>
+        <v>9.375102999999999</v>
       </c>
       <c r="I10">
-        <v>0.0006484758511002136</v>
+        <v>0.000659391896811063</v>
       </c>
       <c r="J10">
-        <v>0.0006484758511002136</v>
+        <v>0.000659391896811063</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.27780379014183</v>
+        <v>1.488193</v>
       </c>
       <c r="N10">
-        <v>3.27780379014183</v>
+        <v>4.464579</v>
       </c>
       <c r="O10">
-        <v>0.2331162163791347</v>
+        <v>0.09810006315031751</v>
       </c>
       <c r="P10">
-        <v>0.2331162163791347</v>
+        <v>0.09810006315031751</v>
       </c>
       <c r="Q10">
-        <v>9.929118500602122</v>
+        <v>4.650654219626333</v>
       </c>
       <c r="R10">
-        <v>9.929118500602122</v>
+        <v>41.85588797663699</v>
       </c>
       <c r="S10">
-        <v>0.0001511702368217209</v>
+        <v>6.468638671797292E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001511702368217209</v>
+        <v>6.468638671797292E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.3890424572463</v>
+        <v>3.125034333333333</v>
       </c>
       <c r="H11">
-        <v>40.3890424572463</v>
+        <v>9.375102999999999</v>
       </c>
       <c r="I11">
-        <v>0.008646286540077552</v>
+        <v>0.000659391896811063</v>
       </c>
       <c r="J11">
-        <v>0.008646286540077552</v>
+        <v>0.000659391896811063</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.25366665034781</v>
+        <v>9.650305666666668</v>
       </c>
       <c r="N11">
-        <v>1.25366665034781</v>
+        <v>28.950917</v>
       </c>
       <c r="O11">
-        <v>0.08916031734685971</v>
+        <v>0.6361376483560043</v>
       </c>
       <c r="P11">
-        <v>0.08916031734685971</v>
+        <v>0.6361376483560043</v>
       </c>
       <c r="Q11">
-        <v>50.63439556813145</v>
+        <v>30.15753653549456</v>
       </c>
       <c r="R11">
-        <v>50.63439556813145</v>
+        <v>271.417828819451</v>
       </c>
       <c r="S11">
-        <v>0.0007709056517851961</v>
+        <v>0.0004194640105823946</v>
       </c>
       <c r="T11">
-        <v>0.0007709056517851961</v>
+        <v>0.0004194640105823946</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.3890424572463</v>
+        <v>3.125034333333333</v>
       </c>
       <c r="H12">
-        <v>40.3890424572463</v>
+        <v>9.375102999999999</v>
       </c>
       <c r="I12">
-        <v>0.008646286540077552</v>
+        <v>0.000659391896811063</v>
       </c>
       <c r="J12">
-        <v>0.008646286540077552</v>
+        <v>0.000659391896811063</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>9.529343693568229</v>
+        <v>0.009611333333333333</v>
       </c>
       <c r="N12">
-        <v>9.529343693568229</v>
+        <v>0.028834</v>
       </c>
       <c r="O12">
-        <v>0.6777234662740056</v>
+        <v>0.0006335686345512656</v>
       </c>
       <c r="P12">
-        <v>0.6777234662740056</v>
+        <v>0.0006335686345512656</v>
       </c>
       <c r="Q12">
-        <v>384.8810670292195</v>
+        <v>0.03003574665577777</v>
       </c>
       <c r="R12">
-        <v>384.8810670292195</v>
+        <v>0.270321719902</v>
       </c>
       <c r="S12">
-        <v>0.005859791284339637</v>
+        <v>4.177700236967542E-07</v>
       </c>
       <c r="T12">
-        <v>0.005859791284339637</v>
+        <v>4.177700236967542E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.3890424572463</v>
+        <v>3.125034333333333</v>
       </c>
       <c r="H13">
-        <v>40.3890424572463</v>
+        <v>9.375102999999999</v>
       </c>
       <c r="I13">
-        <v>0.008646286540077552</v>
+        <v>0.000659391896811063</v>
       </c>
       <c r="J13">
-        <v>0.008646286540077552</v>
+        <v>0.000659391896811063</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.27780379014183</v>
+        <v>4.022043333333333</v>
       </c>
       <c r="N13">
-        <v>3.27780379014183</v>
+        <v>12.06613</v>
       </c>
       <c r="O13">
-        <v>0.2331162163791347</v>
+        <v>0.2651287198591268</v>
       </c>
       <c r="P13">
-        <v>0.2331162163791347</v>
+        <v>0.2651287198591268</v>
       </c>
       <c r="Q13">
-        <v>132.3873564465612</v>
+        <v>12.56902350682111</v>
       </c>
       <c r="R13">
-        <v>132.3873564465612</v>
+        <v>113.12121156139</v>
       </c>
       <c r="S13">
-        <v>0.002015589603952719</v>
+        <v>0.0001748237294869986</v>
       </c>
       <c r="T13">
-        <v>0.002015589603952719</v>
+        <v>0.0001748237294869986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>40.624396</v>
+      </c>
+      <c r="H14">
+        <v>121.873188</v>
+      </c>
+      <c r="I14">
+        <v>0.008571873034966258</v>
+      </c>
+      <c r="J14">
+        <v>0.00857187303496626</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.488193</v>
+      </c>
+      <c r="N14">
+        <v>4.464579</v>
+      </c>
+      <c r="O14">
+        <v>0.09810006315031751</v>
+      </c>
+      <c r="P14">
+        <v>0.09810006315031751</v>
+      </c>
+      <c r="Q14">
+        <v>60.45694175642799</v>
+      </c>
+      <c r="R14">
+        <v>544.112475807852</v>
+      </c>
+      <c r="S14">
+        <v>0.0008409012860466937</v>
+      </c>
+      <c r="T14">
+        <v>0.0008409012860466939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>40.624396</v>
+      </c>
+      <c r="H15">
+        <v>121.873188</v>
+      </c>
+      <c r="I15">
+        <v>0.008571873034966258</v>
+      </c>
+      <c r="J15">
+        <v>0.00857187303496626</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.650305666666668</v>
+      </c>
+      <c r="N15">
+        <v>28.950917</v>
+      </c>
+      <c r="O15">
+        <v>0.6361376483560043</v>
+      </c>
+      <c r="P15">
+        <v>0.6361376483560043</v>
+      </c>
+      <c r="Q15">
+        <v>392.0378389237107</v>
+      </c>
+      <c r="R15">
+        <v>3528.340550313396</v>
+      </c>
+      <c r="S15">
+        <v>0.005452891154469681</v>
+      </c>
+      <c r="T15">
+        <v>0.005452891154469681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>40.624396</v>
+      </c>
+      <c r="H16">
+        <v>121.873188</v>
+      </c>
+      <c r="I16">
+        <v>0.008571873034966258</v>
+      </c>
+      <c r="J16">
+        <v>0.00857187303496626</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009611333333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.028834</v>
+      </c>
+      <c r="O16">
+        <v>0.0006335686345512656</v>
+      </c>
+      <c r="P16">
+        <v>0.0006335686345512656</v>
+      </c>
+      <c r="Q16">
+        <v>0.3904546114213333</v>
+      </c>
+      <c r="R16">
+        <v>3.514091502792</v>
+      </c>
+      <c r="S16">
+        <v>5.430869894310385E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.430869894310386E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>40.624396</v>
+      </c>
+      <c r="H17">
+        <v>121.873188</v>
+      </c>
+      <c r="I17">
+        <v>0.008571873034966258</v>
+      </c>
+      <c r="J17">
+        <v>0.00857187303496626</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.022043333333333</v>
+      </c>
+      <c r="N17">
+        <v>12.06613</v>
+      </c>
+      <c r="O17">
+        <v>0.2651287198591268</v>
+      </c>
+      <c r="P17">
+        <v>0.2651287198591268</v>
+      </c>
+      <c r="Q17">
+        <v>163.3930811024933</v>
+      </c>
+      <c r="R17">
+        <v>1470.53772992244</v>
+      </c>
+      <c r="S17">
+        <v>0.002272649724555573</v>
+      </c>
+      <c r="T17">
+        <v>0.002272649724555573</v>
       </c>
     </row>
   </sheetData>
